--- a/Result/Result_Values.xlsx
+++ b/Result/Result_Values.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="10">
   <si>
     <t>DT</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>Recall Result Value</t>
+  </si>
+  <si>
+    <t>F-Measure</t>
   </si>
 </sst>
 </file>
@@ -301,11 +304,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="177686784"/>
-        <c:axId val="177776128"/>
+        <c:axId val="167969920"/>
+        <c:axId val="167971456"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="177686784"/>
+        <c:axId val="167969920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -314,7 +317,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="177776128"/>
+        <c:crossAx val="167971456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -322,7 +325,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="177776128"/>
+        <c:axId val="167971456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -333,7 +336,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="177686784"/>
+        <c:crossAx val="167969920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -530,11 +533,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="195974272"/>
-        <c:axId val="195976576"/>
+        <c:axId val="167992704"/>
+        <c:axId val="167998592"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="195974272"/>
+        <c:axId val="167992704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -544,7 +547,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="195976576"/>
+        <c:crossAx val="167998592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -552,7 +555,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="195976576"/>
+        <c:axId val="167998592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -563,7 +566,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="195974272"/>
+        <c:crossAx val="167992704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -580,6 +583,418 @@
           <c:h val="0.11009384100959983"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$O$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ROS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$P$2:$S$2</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>DT</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>RF</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>KNN</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>NB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$P$3:$S$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>91</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$O$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AVG ROS&amp;ROS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$P$2:$S$2</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>DT</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>RF</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>KNN</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>NB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$P$4:$S$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>94</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="39383808"/>
+        <c:axId val="39385344"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="39383808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="39385344"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="39385344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="39383808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ROS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$21:$E$21</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>DT</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>RF</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>KNN</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>NB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$22:$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>54</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AVG ROS&amp;ROS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$21:$E$21</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>DT</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>RF</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>KNN</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>NB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$23:$E$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>56</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="173920640"/>
+        <c:axId val="173922176"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="173920640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="173922176"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="173922176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="173920640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -651,6 +1066,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -946,10 +1421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S4"/>
+  <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1058,16 +1533,16 @@
         <v>4</v>
       </c>
       <c r="P3" s="2">
+        <v>87</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>90</v>
+      </c>
+      <c r="R3" s="2">
         <v>92</v>
       </c>
-      <c r="Q3" s="2">
-        <v>99</v>
-      </c>
-      <c r="R3" s="2">
-        <v>82</v>
-      </c>
       <c r="S3" s="2">
-        <v>52</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -1105,23 +1580,82 @@
         <v>5</v>
       </c>
       <c r="P4" s="2">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="Q4" s="2">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R4" s="2">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="S4" s="2">
-        <v>53</v>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="2">
+        <v>89</v>
+      </c>
+      <c r="C22" s="2">
+        <v>94</v>
+      </c>
+      <c r="D22" s="2">
+        <v>87</v>
+      </c>
+      <c r="E22" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="2">
+        <v>92</v>
+      </c>
+      <c r="C23" s="2">
+        <v>94</v>
+      </c>
+      <c r="D23" s="2">
+        <v>89</v>
+      </c>
+      <c r="E23" s="2">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="I1:M1"/>
     <mergeCell ref="O1:S1"/>
+    <mergeCell ref="A20:E20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
